--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2669887.667442019</v>
+        <v>2667395.71811818</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>170.6472220511375</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>213.8305603028423</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.1859052051722</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548842</v>
+        <v>156.6862937548843</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607246</v>
+        <v>62.22601572607255</v>
       </c>
       <c r="S2" t="n">
         <v>177.2262711387724</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337391</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,10 +744,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8323664353425</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.5970034220424</v>
@@ -756,7 +756,7 @@
         <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031454</v>
+        <v>63.69429571031456</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870437</v>
+        <v>53.80849853870441</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799447</v>
+        <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
         <v>197.1557544486214</v>
@@ -795,7 +795,7 @@
         <v>225.8922693348453</v>
       </c>
       <c r="V3" t="n">
-        <v>85.91866073598476</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.6627788836668</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601722</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.7554689484517</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>149.1528076724862</v>
       </c>
       <c r="S4" t="n">
-        <v>157.2613421252804</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2714943330124</v>
+        <v>19.37800418301801</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>29.53663463962879</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>103.1892464664181</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>74.52922194059501</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -1029,7 +1029,7 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>155.3174091611571</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>132.2815965675154</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>156.5083744693735</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>277.554417847518</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.69519077045617</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>29.27764959499575</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>139.6887432323031</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>39.19314274110825</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>119.6383426943709</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9410961977583</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.8146543619973</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>55.52079624060472</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2369,13 +2369,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560521</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>118.4817021252624</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881296</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470134</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>132.6315337216688</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>68.11883945937008</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>75.55208621973041</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.92025364381849</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.2982898844085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>119.3168020713731</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.9877674501602</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1981.653712471833</v>
+        <v>1135.236170615042</v>
       </c>
       <c r="C2" t="n">
-        <v>1612.691195531421</v>
+        <v>962.8652392502564</v>
       </c>
       <c r="D2" t="n">
-        <v>1254.425496924671</v>
+        <v>962.8652392502564</v>
       </c>
       <c r="E2" t="n">
-        <v>1038.435031972305</v>
+        <v>962.8652392502564</v>
       </c>
       <c r="F2" t="n">
-        <v>627.4491271826973</v>
+        <v>955.919738501053</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237638</v>
+        <v>537.8313468421195</v>
       </c>
       <c r="H2" t="n">
         <v>209.3607355237638</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297161</v>
+        <v>51.09175193297158</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710339</v>
+        <v>156.4961545710335</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005019</v>
+        <v>435.2148351005012</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311656</v>
+        <v>833.2666318311645</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537226</v>
+        <v>1292.782497537225</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813646</v>
+        <v>1745.101812813644</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132815</v>
+        <v>2127.026478132814</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.31596093577</v>
+        <v>2415.315960935768</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648581</v>
+        <v>2554.587596648579</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309113</v>
+        <v>2491.733035309112</v>
       </c>
       <c r="S2" t="n">
-        <v>2312.716599815404</v>
+        <v>2312.716599815402</v>
       </c>
       <c r="T2" t="n">
-        <v>2312.716599815404</v>
+        <v>2093.53656826617</v>
       </c>
       <c r="U2" t="n">
-        <v>2312.716599815404</v>
+        <v>1839.764816219692</v>
       </c>
       <c r="V2" t="n">
-        <v>1981.653712471833</v>
+        <v>1508.701928876122</v>
       </c>
       <c r="W2" t="n">
-        <v>1981.653712471833</v>
+        <v>1508.701928876122</v>
       </c>
       <c r="X2" t="n">
-        <v>1981.653712471833</v>
+        <v>1135.236170615042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1981.653712471833</v>
+        <v>1135.236170615042</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.652206113561</v>
+        <v>840.2866238777606</v>
       </c>
       <c r="C3" t="n">
-        <v>814.199176832434</v>
+        <v>665.8335945966336</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711827</v>
+        <v>516.8991849353823</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0273121657272</v>
+        <v>359.4927541926121</v>
       </c>
       <c r="F3" t="n">
         <v>359.4927541926121</v>
@@ -4401,58 +4401,58 @@
         <v>221.5159830592359</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4294243676328</v>
+        <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297161</v>
+        <v>51.09175193297158</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687511</v>
+        <v>120.176512368751</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270547</v>
+        <v>364.8742147270546</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066753</v>
+        <v>755.3048694066749</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633825</v>
+        <v>1105.758028360707</v>
       </c>
       <c r="N3" t="n">
-        <v>1799.633129631802</v>
+        <v>1642.492908358684</v>
       </c>
       <c r="O3" t="n">
-        <v>2224.225006908674</v>
+        <v>2067.084785635557</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153972</v>
+        <v>2390.85413215397</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648581</v>
+        <v>2554.587596648579</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922616</v>
+        <v>2500.235577922615</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973177</v>
+        <v>2340.824460973176</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.677234257398</v>
+        <v>2141.677234257396</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828261</v>
+        <v>1913.50322482826</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.716698832317</v>
+        <v>1678.351116596517</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.479342104116</v>
+        <v>1424.113759868315</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.627841898583</v>
+        <v>1216.262259662783</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.867543133629</v>
+        <v>1008.501960897829</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>258.9444989225514</v>
+        <v>220.0279348608785</v>
       </c>
       <c r="C4" t="n">
-        <v>258.9444989225514</v>
+        <v>51.09175193297158</v>
       </c>
       <c r="D4" t="n">
-        <v>258.9444989225514</v>
+        <v>51.09175193297158</v>
       </c>
       <c r="E4" t="n">
-        <v>258.9444989225514</v>
+        <v>51.09175193297158</v>
       </c>
       <c r="F4" t="n">
-        <v>258.9444989225514</v>
+        <v>51.09175193297158</v>
       </c>
       <c r="G4" t="n">
-        <v>258.9444989225514</v>
+        <v>51.09175193297158</v>
       </c>
       <c r="H4" t="n">
-        <v>100.6992677269284</v>
+        <v>51.09175193297158</v>
       </c>
       <c r="I4" t="n">
-        <v>100.6992677269284</v>
+        <v>51.09175193297158</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297161</v>
+        <v>51.09175193297158</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771864</v>
+        <v>101.0304570771863</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703275</v>
+        <v>220.4612409703273</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486104</v>
+        <v>356.7733802486101</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493208</v>
+        <v>495.2789379493205</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455652</v>
+        <v>607.1949427455647</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071418</v>
+        <v>679.4377367071412</v>
       </c>
       <c r="Q4" t="n">
-        <v>645.3413034258774</v>
+        <v>679.4377367071412</v>
       </c>
       <c r="R4" t="n">
-        <v>645.3413034258774</v>
+        <v>528.7783350177613</v>
       </c>
       <c r="S4" t="n">
-        <v>486.4914628952912</v>
+        <v>528.7783350177613</v>
       </c>
       <c r="T4" t="n">
-        <v>258.9444989225514</v>
+        <v>509.2045934187532</v>
       </c>
       <c r="U4" t="n">
-        <v>258.9444989225514</v>
+        <v>220.0279348608785</v>
       </c>
       <c r="V4" t="n">
-        <v>258.9444989225514</v>
+        <v>220.0279348608785</v>
       </c>
       <c r="W4" t="n">
-        <v>258.9444989225514</v>
+        <v>220.0279348608785</v>
       </c>
       <c r="X4" t="n">
-        <v>258.9444989225514</v>
+        <v>220.0279348608785</v>
       </c>
       <c r="Y4" t="n">
-        <v>258.9444989225514</v>
+        <v>220.0279348608785</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>572.0878179822848</v>
+        <v>1271.461853514909</v>
       </c>
       <c r="C5" t="n">
-        <v>572.0878179822848</v>
+        <v>1271.461853514909</v>
       </c>
       <c r="D5" t="n">
-        <v>213.8221193755343</v>
+        <v>913.1961549081589</v>
       </c>
       <c r="E5" t="n">
-        <v>213.8221193755343</v>
+        <v>913.1961549081589</v>
       </c>
       <c r="F5" t="n">
-        <v>183.9871348910608</v>
+        <v>502.2102501185513</v>
       </c>
       <c r="G5" t="n">
-        <v>170.9397571678923</v>
+        <v>489.1628723953828</v>
       </c>
       <c r="H5" t="n">
         <v>170.9397571678923</v>
@@ -4565,25 +4565,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>322.4498401563318</v>
+        <v>475.9481495814319</v>
       </c>
       <c r="L5" t="n">
-        <v>875.263098402531</v>
+        <v>615.2768054226851</v>
       </c>
       <c r="M5" t="n">
-        <v>1146.3529036269</v>
+        <v>1242.152010302109</v>
       </c>
       <c r="N5" t="n">
-        <v>1340.687116518882</v>
+        <v>1869.459678361956</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2416.620883129033</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625254</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4598,19 +4598,19 @@
         <v>2406.124290896983</v>
       </c>
       <c r="U5" t="n">
-        <v>2406.124290896983</v>
+        <v>2152.432587642134</v>
       </c>
       <c r="V5" t="n">
-        <v>2075.061403553412</v>
+        <v>2152.432587642134</v>
       </c>
       <c r="W5" t="n">
-        <v>1722.292748283298</v>
+        <v>2048.201025554843</v>
       </c>
       <c r="X5" t="n">
-        <v>1348.826990022218</v>
+        <v>2048.201025554843</v>
       </c>
       <c r="Y5" t="n">
-        <v>958.6876580464066</v>
+        <v>1658.061693579031</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857312</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046042</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433529</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378974</v>
       </c>
       <c r="F6" t="n">
         <v>335.5090190736601</v>
@@ -4644,19 +4644,19 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>380.675190873813</v>
       </c>
       <c r="L6" t="n">
-        <v>1003.695982596827</v>
+        <v>885.0367307399315</v>
       </c>
       <c r="M6" t="n">
-        <v>1183.193318951432</v>
+        <v>1159.565353453463</v>
       </c>
       <c r="N6" t="n">
-        <v>1381.850060604097</v>
+        <v>1358.222095106128</v>
       </c>
       <c r="O6" t="n">
         <v>1907.658103858851</v>
@@ -4677,19 +4677,19 @@
         <v>2194.771343825064</v>
       </c>
       <c r="U6" t="n">
-        <v>2037.885071945108</v>
+        <v>1966.63255633623</v>
       </c>
       <c r="V6" t="n">
-        <v>1802.732963713365</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170753</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.631292405799</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>184.8645608786247</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>184.8645608786247</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>184.8645608786247</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.181468027348</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="W7" t="n">
-        <v>1051.181468027348</v>
+        <v>405.6571400221548</v>
       </c>
       <c r="X7" t="n">
-        <v>823.1919171293305</v>
+        <v>405.6571400221548</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.1026499885492</v>
+        <v>184.8645608786247</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>848.1875530107163</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="C8" t="n">
-        <v>848.1875530107163</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>848.1875530107163</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>848.1875530107163</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.92672505065</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.787393074838</v>
+        <v>1112.520734025444</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>129.083478590917</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>575.6256845144198</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>870.3292415458916</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962183</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>479.8501387075395</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5072,13 +5072,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>228.9331431646415</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>988.1395539230172</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>819.2033709951103</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908939</v>
@@ -5446,40 +5446,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235163</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602302</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396415</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359455</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1090.48308855706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>869.6905094135296</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>634.5603720565524</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1465.200520057987</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612593</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925226</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101294</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122191</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>149.8982754122191</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6054,34 +6054,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2312.991837396757</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6227,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2737913123336</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>197.0043242297712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6485,13 +6485,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,13 +6725,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>724.7519863413023</v>
+        <v>803.2707707770332</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>634.3345878491264</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>484.2179484367906</v>
       </c>
       <c r="E37" t="n">
         <v>407.9027098310023</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X37" t="n">
-        <v>1127.193030315072</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.400451171542</v>
+        <v>984.919235607273</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7187,10 +7187,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1337.934786622704</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,19 +7640,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7673,10 +7673,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>306.977567514528</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>159.7352724044663</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>85.24282060501136</v>
+        <v>444.6220121757743</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>95.99119834235006</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>369.9956874605992</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.64270034434914</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>35.91627445172469</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-4.508049962793278e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>109.4223302771041</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>106.0713126946662</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.6435571543365</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>84.77391660561915</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>77.24602870709352</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.8130107209615</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>43.26526345294991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>48.39475227997582</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>184.0188038644579</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>70.88187642683876</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>208.7894017452187</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.533690297528807</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.84421273177711</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="16">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520052</v>
       </c>
       <c r="N2" t="n">
         <v>645717.279752005</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161977</v>
+        <v>548460.0746161973</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299259</v>
+        <v>225009.9816299263</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843803</v>
+        <v>167098.1292843802</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243598028</v>
+        <v>498.7619243599069</v>
       </c>
       <c r="L3" t="n">
-        <v>2.815770605185866e-11</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198062</v>
+        <v>247452.3619198063</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26427,34 +26427,34 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
+        <v>7507.368461719687</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.368461719687</v>
+      </c>
+      <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="G4" t="n">
-        <v>7507.368461719632</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.368461719649</v>
-      </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719749</v>
       </c>
       <c r="J4" t="n">
         <v>7507.36846171968</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719652</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719708</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719672</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946035</v>
+        <v>80023.3137194603</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905216</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219102.3343640376</v>
+        <v>-219102.3343640371</v>
       </c>
       <c r="C6" t="n">
-        <v>147997.8628222961</v>
+        <v>147997.8628222959</v>
       </c>
       <c r="D6" t="n">
-        <v>139096.7703818113</v>
+        <v>139096.7703818117</v>
       </c>
       <c r="E6" t="n">
-        <v>29601.93984183227</v>
+        <v>29567.20191639669</v>
       </c>
       <c r="F6" t="n">
-        <v>537087.3814663781</v>
+        <v>537052.6435409425</v>
       </c>
       <c r="G6" t="n">
-        <v>537087.3814663782</v>
+        <v>537052.6435409425</v>
       </c>
       <c r="H6" t="n">
-        <v>537087.3814663782</v>
+        <v>537052.6435409422</v>
       </c>
       <c r="I6" t="n">
-        <v>537087.3814663782</v>
+        <v>537052.6435409426</v>
       </c>
       <c r="J6" t="n">
-        <v>369989.2521819979</v>
+        <v>369954.514256562</v>
       </c>
       <c r="K6" t="n">
-        <v>536588.6195420183</v>
+        <v>536553.8816165827</v>
       </c>
       <c r="L6" t="n">
-        <v>537087.3814663781</v>
+        <v>537052.6435409426</v>
       </c>
       <c r="M6" t="n">
-        <v>404480.0877374518</v>
+        <v>404445.3498120157</v>
       </c>
       <c r="N6" t="n">
-        <v>537087.3814663782</v>
+        <v>537052.6435409426</v>
       </c>
       <c r="O6" t="n">
-        <v>537087.3814663781</v>
+        <v>537052.6435409425</v>
       </c>
       <c r="P6" t="n">
-        <v>537087.3814663781</v>
+        <v>537052.6435409425</v>
       </c>
     </row>
   </sheetData>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817397</v>
+        <v>347.0634059817394</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621451</v>
+        <v>638.6468991621447</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817397</v>
+        <v>347.0634059817394</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563254</v>
+        <v>246.4126943563257</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621451</v>
+        <v>638.6468991621447</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937893606</v>
+        <v>1.937932937894015</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>638.6468991621451</v>
       </c>
       <c r="K4" t="n">
-        <v>1.93793293789372</v>
+        <v>1.937932937894015</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621451</v>
+        <v>638.6468991621447</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937893606</v>
+        <v>1.937932937894015</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>194.62566971987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>168.0998097694195</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051722</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337391</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2340345260132</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27464,10 +27464,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.812714020058422</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>146.8819264134405</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3651273148851</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
         <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>49.11144063601726</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>33.75546894845174</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724861</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>55.84836166141329</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>205.8934901499944</v>
       </c>
       <c r="U4" t="n">
-        <v>286.284891972296</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>377.3394111020826</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>246.0517222509949</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>70.53999045278887</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>70.53999045278877</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>14.15236607905379</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.07627888272128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>105.1794238159626</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>396.1808549712553</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>117.1563130515734</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7.562765922825804</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,16 +28065,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-4.939277081144419e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29047,13 +29047,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29089,13 +29089,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.478997154632013e-12</v>
       </c>
     </row>
     <row r="24">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30277,10 +30277,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-4.307401935773079e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="39">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790912</v>
+        <v>1.395229772790911</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059493</v>
+        <v>14.28889691059492</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552169</v>
+        <v>53.78959581552165</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284128</v>
+        <v>118.4183829284127</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106521</v>
+        <v>177.478459210652</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697021</v>
+        <v>220.1777223697019</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415724</v>
+        <v>244.9901398415722</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335146</v>
+        <v>248.9543364335144</v>
       </c>
       <c r="O2" t="n">
-        <v>235.080520380325</v>
+        <v>235.0805203803248</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645493</v>
+        <v>200.6357853645492</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264747</v>
+        <v>150.6691191264746</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507722</v>
+        <v>87.64310221507714</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747294</v>
+        <v>31.79379844747292</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392221</v>
+        <v>6.107618330392216</v>
       </c>
       <c r="U2" t="n">
-        <v>0.111618381823273</v>
+        <v>0.1116183818232729</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682703</v>
+        <v>0.7465137411682696</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809348</v>
+        <v>7.209751131809342</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110054</v>
+        <v>25.70233714110051</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502506</v>
+        <v>70.529177625025</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832992</v>
+        <v>120.5455982832991</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426983</v>
+        <v>162.0884331426982</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600481</v>
+        <v>189.1495562600479</v>
       </c>
       <c r="N3" t="n">
-        <v>194.155782182181</v>
+        <v>194.1557821821808</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857682</v>
+        <v>177.6146092857681</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323866</v>
+        <v>142.5513827323865</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351464</v>
+        <v>95.29182422351457</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393876</v>
+        <v>46.34933561393872</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389308</v>
+        <v>13.86616532389307</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200176</v>
+        <v>3.008974246200173</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949149</v>
+        <v>0.04911274612949144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736288</v>
+        <v>0.6258520435736283</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772813</v>
+        <v>5.564393623772808</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946877</v>
+        <v>18.82107781946875</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065555</v>
+        <v>44.24773948065552</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519069</v>
+        <v>72.71262833519062</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730116</v>
+        <v>93.04713018730108</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218255</v>
+        <v>98.10515261218247</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886275</v>
+        <v>95.77243135886266</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711623</v>
+        <v>88.46134157711616</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821414</v>
+        <v>75.69395988821407</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324269</v>
+        <v>52.40657430324264</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468334</v>
+        <v>28.14058370468332</v>
       </c>
       <c r="S4" t="n">
-        <v>10.9068942502786</v>
+        <v>10.90689425027859</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67409509526914</v>
+        <v>2.674095095269139</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492525</v>
+        <v>0.03413738419492522</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>263.3189197138078</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,31 +32072,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>531.8166820790243</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>536.8001439125369</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>270.9716933356905</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>459.3154675919703</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,16 +33734,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>402.2342772868842</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>669.466988500007</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34445,16 +34445,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738003</v>
+        <v>106.4690935738002</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368363</v>
+        <v>281.5340207368362</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501653</v>
+        <v>402.0725219501651</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071322</v>
+        <v>464.157440107132</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489079</v>
+        <v>456.8881972489077</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213836</v>
+        <v>385.7824902213835</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807625</v>
+        <v>291.2014977807622</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119299</v>
+        <v>140.6784199119298</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.7825862987672</v>
+        <v>69.78258629876714</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215188</v>
+        <v>247.1693963215187</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662834</v>
+        <v>394.3743986662832</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880297</v>
+        <v>353.9930898525576</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424012</v>
+        <v>542.156444442401</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180533</v>
+        <v>428.8806841180532</v>
       </c>
       <c r="P3" t="n">
-        <v>168.3122477225227</v>
+        <v>327.0397439579934</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733422</v>
+        <v>165.3873378733421</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930783</v>
+        <v>50.44313650930776</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476173</v>
+        <v>120.6371554476172</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740232</v>
+        <v>137.689029574023</v>
       </c>
       <c r="N4" t="n">
         <v>139.9046037380913</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911559</v>
+        <v>113.0464694911558</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310763</v>
+        <v>72.97251915310756</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>273.8280860852211</v>
+        <v>633.2072776559841</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
@@ -35021,13 +35021,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>277.3016391045771</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>531.1192356108625</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>78.62292123526659</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>371.3409564478476</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899057</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>393.2623022991502</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>394.6661099905186</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P24" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36595,10 +36595,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>132.4173135558163</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>316.7192231475259</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>263.67989750701</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899085</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060454</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>526.8707440555626</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
